--- a/biology/Médecine/Laryngoplastie/Laryngoplastie.xlsx
+++ b/biology/Médecine/Laryngoplastie/Laryngoplastie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une laryngoplastie est une intervention de chirurgie ORL sur les cartilages du larynx.
 </t>
@@ -511,7 +523,9 @@
           <t>Rappels anatomiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le larynx est un organe de l'appareil respiratoire situé au niveau du cou. C'est un conduit cartilagineux rigide soutenu par quatre cartilages :
 le cartilage thyroïde, qui forme le relief de la « pomme d'Adam », dans sa partie antérieure ;
@@ -545,9 +559,11 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On distingue plusieurs types de laryngoplastie. La laryngoplastie de réduction[1] est une intervention esthétique visant à réduire la proéminence de la pomme d'Adam. Par ailleurs, dans les sténoses laryngées très serrées, une laryngoplastie[2] consiste à ouvrir et remanier les cartilages afin de rétablir un calibre laryngé normal. La laryngoplastie de médialisation et la laryngoplastie par adduction de l'aryténoïde[3] sont, elles, des interventions destinées à repousser une corde vocale en position médiane afin de corriger une paralysie.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On distingue plusieurs types de laryngoplastie. La laryngoplastie de réduction est une intervention esthétique visant à réduire la proéminence de la pomme d'Adam. Par ailleurs, dans les sténoses laryngées très serrées, une laryngoplastie consiste à ouvrir et remanier les cartilages afin de rétablir un calibre laryngé normal. La laryngoplastie de médialisation et la laryngoplastie par adduction de l'aryténoïde sont, elles, des interventions destinées à repousser une corde vocale en position médiane afin de corriger une paralysie.
 </t>
         </is>
       </c>
